--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="11820" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Thema</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Unterpunkte</t>
+  </si>
+  <si>
+    <t>Aufstellung der Datenbankfelder</t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -123,7 +126,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,20 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -462,8 +471,36 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>42857</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>42858</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -476,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Thema</t>
   </si>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +500,34 @@
         <v>16</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>42859</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>42860</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
     </row>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masterarbeit\Stundenerfassung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Thema</t>
   </si>
@@ -67,12 +72,15 @@
   </si>
   <si>
     <t>Aufstellung der Datenbankfelder</t>
+  </si>
+  <si>
+    <t>Skript geschrieben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -144,14 +152,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -189,9 +200,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,9 +235,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,9 +287,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,19 +480,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="1" max="1" width="11.41796875" style="4"/>
     <col min="2" max="3" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -461,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>42857</v>
       </c>
@@ -475,7 +520,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42857</v>
       </c>
@@ -489,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42858</v>
       </c>
@@ -503,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42859</v>
       </c>
@@ -517,7 +562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42860</v>
       </c>
@@ -529,6 +574,34 @@
       </c>
       <c r="D6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>42862</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3">
+        <v>42862</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -545,13 +618,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -559,47 +632,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -615,7 +688,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Thema</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Skript geschrieben</t>
+  </si>
+  <si>
+    <t>Anpassung der bereits vorhandenen Datenbankfelder</t>
   </si>
 </sst>
 </file>
@@ -480,16 +483,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.41796875" style="4"/>
-    <col min="2" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
@@ -602,6 +606,20 @@
       </c>
       <c r="D8">
         <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>42863</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -486,7 +486,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masterarbeit\Stundenerfassung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Thema</t>
   </si>
@@ -78,12 +73,18 @@
   </si>
   <si>
     <t>Anpassung der bereits vorhandenen Datenbankfelder</t>
+  </si>
+  <si>
+    <t>Abbruch, da nicht so schnell realisierbar</t>
+  </si>
+  <si>
+    <t>Verbindung zur SoftwareVersionsDatabase aus CVI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,9 +164,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,9 +204,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -238,26 +239,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,26 +274,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,20 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" style="4"/>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -510,7 +478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42857</v>
       </c>
@@ -524,7 +492,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>42857</v>
       </c>
@@ -538,7 +506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>42858</v>
       </c>
@@ -552,7 +520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>42859</v>
       </c>
@@ -566,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>42860</v>
       </c>
@@ -580,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42862</v>
       </c>
@@ -594,7 +562,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>42862</v>
       </c>
@@ -608,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>42863</v>
       </c>
@@ -620,6 +588,37 @@
       </c>
       <c r="D9">
         <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>42872</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42872</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -633,16 +632,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -650,47 +649,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -706,7 +705,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Thema</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +618,34 @@
         <v>20</v>
       </c>
       <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42873</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42873</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
         <v>2</v>
       </c>
     </row>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masterarbeit\Stundenerfassung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
     <sheet name="Projekte" sheetId="2" r:id="rId2"/>
-    <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
+    <sheet name="Wochen" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>Thema</t>
   </si>
@@ -79,12 +84,21 @@
   </si>
   <si>
     <t>Verbindung zur SoftwareVersionsDatabase aus CVI</t>
+  </si>
+  <si>
+    <t>Kapitel Grundlagen, Zielsetzung, Anfang Methodik beschrieben</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woche </t>
+  </si>
+  <si>
+    <t>Total [h]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,9 +178,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -204,9 +218,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,9 +253,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +305,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,21 +498,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" style="4"/>
+    <col min="2" max="2" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.41796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -478,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>42857</v>
       </c>
@@ -492,7 +540,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42857</v>
       </c>
@@ -506,7 +554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42858</v>
       </c>
@@ -520,7 +568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42859</v>
       </c>
@@ -534,7 +582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42860</v>
       </c>
@@ -548,7 +596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>42862</v>
       </c>
@@ -562,7 +610,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>42862</v>
       </c>
@@ -576,7 +624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>42863</v>
       </c>
@@ -593,7 +641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>42872</v>
       </c>
@@ -607,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>42872</v>
       </c>
@@ -621,7 +669,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>42873</v>
       </c>
@@ -635,7 +683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>42873</v>
       </c>
@@ -647,6 +695,20 @@
       </c>
       <c r="D13">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
+        <v>42876</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -659,17 +721,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -677,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -687,37 +749,37 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -729,12 +791,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>Thema</t>
   </si>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>Total [h]</t>
+  </si>
+  <si>
+    <t>Skripts ausgeführt</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -709,6 +712,20 @@
       </c>
       <c r="D14">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>42877</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -793,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>Thema</t>
   </si>
@@ -96,6 +96,9 @@
   </si>
   <si>
     <t>Skripts ausgeführt</t>
+  </si>
+  <si>
+    <t>Kapitel Methodik, Beschreibung Arbeit beschrieben</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -726,6 +729,20 @@
       </c>
       <c r="D15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>42880</v>
+      </c>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Thema</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>Kapitel Methodik, Beschreibung Arbeit beschrieben</t>
+  </si>
+  <si>
+    <t>Erstellung Konzept</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -745,6 +748,34 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>42881</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>42882</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -755,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -825,10 +856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -865,6 +896,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Thema</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>Erstellung Konzept</t>
+  </si>
+  <si>
+    <t>UML Zeichnungen erstellt</t>
   </si>
 </sst>
 </file>
@@ -507,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -774,6 +777,20 @@
       </c>
       <c r="D18">
         <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3">
+        <v>42883</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Thema</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>UML Zeichnungen erstellt</t>
+  </si>
+  <si>
+    <t>Abspeicherung Testinformationen</t>
+  </si>
+  <si>
+    <t>Firmware Database, Testinformationen, Testresultate, Buglist</t>
+  </si>
+  <si>
+    <t>Skript geschrieben, Firmware Database</t>
+  </si>
+  <si>
+    <t>Testinformationen in SoftwareVersionsDatabase geschrieben</t>
   </si>
 </sst>
 </file>
@@ -510,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -630,7 +642,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -655,7 +667,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
-        <v>42872</v>
+        <v>42864</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -664,7 +676,7 @@
         <v>16</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -672,18 +684,18 @@
         <v>42872</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
-        <v>42873</v>
+        <v>42872</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -700,10 +712,10 @@
         <v>42873</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -711,85 +723,127 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
-        <v>42876</v>
+        <v>42873</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>42877</v>
+        <v>42876</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>42880</v>
+        <v>42877</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16">
-        <v>3.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <v>42881</v>
+        <v>42878</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>2.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <v>42882</v>
+        <v>42879</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
+        <v>42880</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3">
+        <v>42881</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3">
+        <v>42882</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3">
         <v>42883</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>2</v>
       </c>
     </row>
@@ -801,16 +855,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="40.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -825,44 +879,52 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -876,7 +938,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -902,7 +964,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -918,7 +980,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masterarbeit\Stundenerfassung\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>Thema</t>
   </si>
@@ -122,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,9 +197,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -242,9 +237,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -277,26 +272,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,26 +307,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,21 +483,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" style="4"/>
-    <col min="2" max="2" width="40.26171875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="4"/>
+    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -550,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42857</v>
       </c>
@@ -564,7 +525,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42857</v>
       </c>
@@ -578,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42858</v>
       </c>
@@ -592,7 +553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42859</v>
       </c>
@@ -606,7 +567,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42860</v>
       </c>
@@ -620,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>42862</v>
       </c>
@@ -634,7 +595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>42862</v>
       </c>
@@ -648,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>42863</v>
       </c>
@@ -665,7 +626,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>42864</v>
       </c>
@@ -679,7 +640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>42872</v>
       </c>
@@ -693,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>42872</v>
       </c>
@@ -707,7 +668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>42873</v>
       </c>
@@ -721,7 +682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>42873</v>
       </c>
@@ -735,7 +696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>42876</v>
       </c>
@@ -749,7 +710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>42877</v>
       </c>
@@ -763,7 +724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>42878</v>
       </c>
@@ -777,7 +738,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>42879</v>
       </c>
@@ -791,7 +752,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>42880</v>
       </c>
@@ -805,7 +766,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>42881</v>
       </c>
@@ -819,7 +780,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>42882</v>
       </c>
@@ -833,7 +794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>42883</v>
       </c>
@@ -844,6 +805,34 @@
         <v>27</v>
       </c>
       <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42884</v>
+      </c>
+      <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>42885</v>
+      </c>
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24">
         <v>2</v>
       </c>
     </row>
@@ -861,9 +850,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -937,11 +926,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Masterarbeit\Stundenerfassung\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24915" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
   <si>
     <t>Thema</t>
   </si>
@@ -117,7 +122,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -197,9 +202,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -237,9 +242,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +277,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,9 +329,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,21 +522,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="4"/>
-    <col min="2" max="2" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" style="4"/>
+    <col min="2" max="2" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -511,7 +550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>42857</v>
       </c>
@@ -525,7 +564,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>42857</v>
       </c>
@@ -539,7 +578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>42858</v>
       </c>
@@ -553,7 +592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>42859</v>
       </c>
@@ -567,7 +606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>42860</v>
       </c>
@@ -581,7 +620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3">
         <v>42862</v>
       </c>
@@ -595,7 +634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>42862</v>
       </c>
@@ -609,7 +648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3">
         <v>42863</v>
       </c>
@@ -626,7 +665,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3">
         <v>42864</v>
       </c>
@@ -640,7 +679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3">
         <v>42872</v>
       </c>
@@ -654,7 +693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3">
         <v>42872</v>
       </c>
@@ -668,7 +707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3">
         <v>42873</v>
       </c>
@@ -682,7 +721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3">
         <v>42873</v>
       </c>
@@ -696,7 +735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
         <v>42876</v>
       </c>
@@ -710,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
         <v>42877</v>
       </c>
@@ -724,7 +763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>42878</v>
       </c>
@@ -738,7 +777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>42879</v>
       </c>
@@ -752,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
         <v>42880</v>
       </c>
@@ -766,7 +805,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
         <v>42881</v>
       </c>
@@ -780,7 +819,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
         <v>42882</v>
       </c>
@@ -794,7 +833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.45" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
         <v>42883</v>
       </c>
@@ -808,7 +847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
         <v>42884</v>
       </c>
@@ -822,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
         <v>42885</v>
       </c>
@@ -834,6 +873,20 @@
       </c>
       <c r="D24">
         <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3">
+        <v>42886</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
@@ -850,9 +903,9 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.26171875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -924,13 +977,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
@@ -972,6 +1025,11 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t>Thema</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Testinformationen in SoftwareVersionsDatabase geschrieben</t>
+  </si>
+  <si>
+    <t>Erstellung Skizzen</t>
   </si>
 </sst>
 </file>
@@ -522,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -887,6 +890,34 @@
       </c>
       <c r="D25">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3">
+        <v>42890</v>
+      </c>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3">
+        <v>42890</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +1010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -528,7 +528,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1060,6 +1060,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6">
+        <v>10.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
   <si>
     <t>Thema</t>
   </si>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -911,13 +911,27 @@
         <v>42890</v>
       </c>
       <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
         <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
       </c>
       <c r="D27">
         <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3">
+        <v>42891</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +945,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -931,7 +931,7 @@
         <v>11</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
   <si>
     <t>Thema</t>
   </si>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -932,6 +932,34 @@
       </c>
       <c r="D28">
         <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3">
+        <v>42894</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="3">
+        <v>42894</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>Thema</t>
   </si>
@@ -47,9 +47,6 @@
     <t>SoftwareVersionsDatabase Modellierung</t>
   </si>
   <si>
-    <t>TTIC2 Zugriff auf SoftwareVersionsDatabase</t>
-  </si>
-  <si>
     <t>Erstellung ETIC2</t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Abbruch, da nicht so schnell realisierbar</t>
   </si>
   <si>
-    <t>Verbindung zur SoftwareVersionsDatabase aus CVI</t>
-  </si>
-  <si>
     <t>Kapitel Grundlagen, Zielsetzung, Anfang Methodik beschrieben</t>
   </si>
   <si>
@@ -116,10 +110,28 @@
     <t>Skript geschrieben, Firmware Database</t>
   </si>
   <si>
-    <t>Testinformationen in SoftwareVersionsDatabase geschrieben</t>
-  </si>
-  <si>
     <t>Erstellung Skizzen</t>
+  </si>
+  <si>
+    <t>Dokumentation Grundlagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TestUpdateFirmware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anweisung Update Testinformationen </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>TTIC2</t>
+  </si>
+  <si>
+    <t>Zugriff auf Test Informationen</t>
+  </si>
+  <si>
+    <t>Abspeicherung der Testresultate</t>
   </si>
 </sst>
 </file>
@@ -525,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -575,7 +587,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -589,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -603,7 +615,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -617,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -645,7 +657,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -659,13 +671,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -676,7 +688,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -690,7 +702,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -701,10 +713,10 @@
         <v>42872</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -715,10 +727,10 @@
         <v>42873</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -732,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -746,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -760,7 +772,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -771,10 +783,10 @@
         <v>42878</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -785,10 +797,10 @@
         <v>42879</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -802,7 +814,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>3.5</v>
@@ -813,10 +825,10 @@
         <v>42881</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>2.5</v>
@@ -827,10 +839,10 @@
         <v>42882</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -841,10 +853,10 @@
         <v>42883</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -855,10 +867,10 @@
         <v>42884</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -869,10 +881,10 @@
         <v>42885</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -883,10 +895,10 @@
         <v>42886</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D25">
         <v>2.5</v>
@@ -900,7 +912,7 @@
         <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -911,10 +923,10 @@
         <v>42890</v>
       </c>
       <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
         <v>9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>10</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -925,10 +937,10 @@
         <v>42891</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -942,7 +954,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29">
         <v>0.5</v>
@@ -956,10 +968,38 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D30">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="3">
+        <v>42895</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="3">
+        <v>42896</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -970,15 +1010,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -987,7 +1027,7 @@
         <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -995,52 +1035,71 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" t="s">
-        <v>11</v>
+      <c r="A7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1060,10 +1119,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
   <si>
     <t>Thema</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Abspeicherung der Testresultate</t>
+  </si>
+  <si>
+    <t>Kapitel Grundlagen beschriben</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1000,6 +1003,34 @@
       </c>
       <c r="D32">
         <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="3">
+        <v>42897</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="3">
+        <v>42897</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
   <si>
     <t>Thema</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Abspeicherung der Testresultate</t>
-  </si>
-  <si>
-    <t>Kapitel Grundlagen beschriben</t>
   </si>
 </sst>
 </file>
@@ -540,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1027,10 +1024,38 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="3">
+        <v>42898</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="3">
+        <v>42898</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>Thema</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Abspeicherung der Testresultate</t>
+  </si>
+  <si>
+    <t>Dokumentation Grundlagen, Zielsetzung</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1056,6 +1059,20 @@
       </c>
       <c r="D36">
         <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="3">
+        <v>42900</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
   <si>
     <t>Thema</t>
   </si>
@@ -540,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1005,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
         <v>42897</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3">
         <v>42897</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
         <v>42898</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3">
         <v>42898</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
         <v>42900</v>
       </c>
@@ -1072,6 +1072,49 @@
         <v>37</v>
       </c>
       <c r="D37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="3">
+        <v>42901</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="3">
+        <v>42901</v>
+      </c>
+      <c r="B39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="3">
+        <v>42902</v>
+      </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40">
         <v>4</v>
       </c>
     </row>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18067"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11820"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
   <si>
     <t>Thema</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Projekte</t>
   </si>
   <si>
-    <t>SoftwareVersionsDatabase Modellierung</t>
-  </si>
-  <si>
     <t>Erstellung ETIC2</t>
   </si>
   <si>
@@ -62,15 +59,9 @@
     <t>Ausgabe Bericht</t>
   </si>
   <si>
-    <t>Fertigstellen der schrifltichen Arbeit</t>
-  </si>
-  <si>
     <t>Unterpunkte</t>
   </si>
   <si>
-    <t>Aufstellung der Datenbankfelder</t>
-  </si>
-  <si>
     <t>Skript geschrieben</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>Abspeicherung Testinformationen</t>
   </si>
   <si>
-    <t>Firmware Database, Testinformationen, Testresultate, Buglist</t>
-  </si>
-  <si>
     <t>Skript geschrieben, Firmware Database</t>
   </si>
   <si>
@@ -128,20 +116,92 @@
     <t>TTIC2</t>
   </si>
   <si>
-    <t>Zugriff auf Test Informationen</t>
-  </si>
-  <si>
     <t>Abspeicherung der Testresultate</t>
   </si>
   <si>
     <t>Dokumentation Grundlagen, Zielsetzung</t>
+  </si>
+  <si>
+    <t>Bemerkungen</t>
+  </si>
+  <si>
+    <t>Modellierung im MySQL Workbench</t>
+  </si>
+  <si>
+    <t>Scripts erstellen</t>
+  </si>
+  <si>
+    <t>Erster Ansatz</t>
+  </si>
+  <si>
+    <t>Testinformationen an TestUpdateFirmware über Umgebungsvariablen</t>
+  </si>
+  <si>
+    <t>Aktueller Ansatz</t>
+  </si>
+  <si>
+    <t>Firmware Database, Testinformationen, Testresultate, Buglist Datenbankfelder</t>
+  </si>
+  <si>
+    <t>Abfrage Testinformationen</t>
+  </si>
+  <si>
+    <t>Schreibt Testinformationen in SoftwareVersionsDatabase</t>
+  </si>
+  <si>
+    <t>Auslesung der Testinformationen</t>
+  </si>
+  <si>
+    <t>Hinterlegung des Grundzustandes</t>
+  </si>
+  <si>
+    <t>ETIC2</t>
+  </si>
+  <si>
+    <t>SoftwareVersionsDatabase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SoftwareVersionsDatabase </t>
+  </si>
+  <si>
+    <t>Firmware Database</t>
+  </si>
+  <si>
+    <t>01.05.2017-07.05.2017</t>
+  </si>
+  <si>
+    <t>08.05.2017-14.05.2017</t>
+  </si>
+  <si>
+    <t>15.05.2017-21.05.2017</t>
+  </si>
+  <si>
+    <t>22.05.2017-28.05.2017</t>
+  </si>
+  <si>
+    <t>29.05.2017-04.06.2017</t>
+  </si>
+  <si>
+    <t>05.06.2017-11.06.2017</t>
+  </si>
+  <si>
+    <t>12.06.2017-18.06.2017</t>
+  </si>
+  <si>
+    <t>19.06.2017-25.06.2017</t>
+  </si>
+  <si>
+    <t>Kapitel Grundlagen, Zielsetzung</t>
+  </si>
+  <si>
+    <t>Testinformationen in SoftwareVersionsDatabase schreiben</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +221,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -202,6 +270,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -540,16 +611,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.41796875" style="4"/>
-    <col min="2" max="2" width="40.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.1015625" customWidth="1"/>
     <col min="3" max="3" width="58.15625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72" customWidth="1"/>
   </cols>
@@ -567,6 +638,9 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
@@ -587,10 +661,10 @@
         <v>42857</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -601,10 +675,10 @@
         <v>42858</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -615,10 +689,10 @@
         <v>42859</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -629,10 +703,10 @@
         <v>42860</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -657,10 +731,10 @@
         <v>42862</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -671,16 +745,16 @@
         <v>42863</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -688,10 +762,10 @@
         <v>42864</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -702,10 +776,10 @@
         <v>42872</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -716,10 +790,10 @@
         <v>42872</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -729,14 +803,14 @@
       <c r="A13" s="3">
         <v>42873</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
+      <c r="B13" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -744,10 +818,10 @@
         <v>42873</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -755,55 +829,55 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3">
-        <v>42876</v>
+        <v>42873</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3">
-        <v>42877</v>
+        <v>42876</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
-        <v>42878</v>
+        <v>42877</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
-        <v>42879</v>
+        <v>42878</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -811,69 +885,69 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3">
-        <v>42880</v>
+        <v>42879</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19">
-        <v>3.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3">
-        <v>42881</v>
+        <v>42880</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D20">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3">
-        <v>42882</v>
+        <v>42881</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3">
-        <v>42883</v>
+        <v>42882</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3">
-        <v>42884</v>
+        <v>42883</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -881,13 +955,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3">
-        <v>42885</v>
+        <v>42884</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -895,30 +969,30 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3">
-        <v>42886</v>
+        <v>42885</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3">
-        <v>42890</v>
+        <v>42886</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -926,41 +1000,41 @@
         <v>42890</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3">
-        <v>42891</v>
+        <v>42890</v>
       </c>
       <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="C28" t="s">
-        <v>10</v>
-      </c>
       <c r="D28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3">
-        <v>42894</v>
+        <v>42891</v>
       </c>
       <c r="B29" t="s">
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D29">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -968,35 +1042,35 @@
         <v>42894</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3">
-        <v>42895</v>
+        <v>42894</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3">
-        <v>42896</v>
+        <v>42895</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
         <v>26</v>
@@ -1007,16 +1081,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3">
-        <v>42897</v>
+        <v>42896</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1027,7 +1101,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1035,16 +1109,16 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3">
-        <v>42898</v>
+        <v>42897</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1052,41 +1126,41 @@
         <v>42898</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3">
-        <v>42900</v>
+        <v>42898</v>
       </c>
       <c r="B37" t="s">
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D37">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3">
-        <v>42901</v>
+        <v>42900</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D38">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -1094,28 +1168,98 @@
         <v>42901</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D39">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="3">
-        <v>42902</v>
+        <v>42901</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D40">
         <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="3">
+        <v>42902</v>
+      </c>
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="3">
+        <v>42902</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="3">
+        <v>42903</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="3">
+        <v>42903</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="3">
+        <v>42904</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1126,162 +1270,261 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="47.734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.62890625" customWidth="1"/>
+    <col min="2" max="2" width="57.1015625" customWidth="1"/>
+    <col min="3" max="3" width="62.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="19.20703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.3671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2">
         <v>22.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B5" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>10.5</v>
+      <c r="B6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
   <si>
     <t>Thema</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>19.06.2017-25.06.2017</t>
-  </si>
-  <si>
-    <t>Kapitel Grundlagen, Zielsetzung</t>
   </si>
   <si>
     <t>Testinformationen in SoftwareVersionsDatabase schreiben</t>
@@ -611,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E45"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1262,6 +1259,62 @@
         <v>6</v>
       </c>
     </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="3">
+        <v>42905</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="3">
+        <v>42906</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="3">
+        <v>42906</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="3">
+        <v>42907</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1273,7 +1326,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1356,7 +1409,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>38</v>
@@ -1417,7 +1470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
   <si>
     <t>Thema</t>
   </si>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>UML Zeichnungen erstellt</t>
-  </si>
-  <si>
-    <t>Abspeicherung Testinformationen</t>
   </si>
   <si>
     <t>Skript geschrieben, Firmware Database</t>
@@ -608,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -636,7 +633,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -658,10 +655,10 @@
         <v>42857</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -672,10 +669,10 @@
         <v>42858</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -686,10 +683,10 @@
         <v>42859</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -700,10 +697,10 @@
         <v>42860</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -728,10 +725,10 @@
         <v>42862</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -742,7 +739,7 @@
         <v>42863</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -759,10 +756,10 @@
         <v>42864</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -773,10 +770,10 @@
         <v>42872</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -787,10 +784,10 @@
         <v>42872</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -801,10 +798,10 @@
         <v>42873</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -815,10 +812,10 @@
         <v>42873</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -829,7 +826,7 @@
         <v>42873</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -857,7 +854,7 @@
         <v>42877</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
@@ -871,10 +868,10 @@
         <v>42878</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -885,10 +882,10 @@
         <v>42879</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -955,10 +952,10 @@
         <v>42884</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -969,10 +966,10 @@
         <v>42885</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -983,10 +980,10 @@
         <v>42886</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D26">
         <v>2.5</v>
@@ -1000,7 +997,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1039,7 +1036,7 @@
         <v>42894</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1056,7 +1053,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>1.5</v>
@@ -1070,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1081,10 +1078,10 @@
         <v>42896</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1098,7 +1095,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1112,7 +1109,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1123,7 +1120,7 @@
         <v>42898</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1140,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1154,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1165,7 +1162,7 @@
         <v>42901</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -1180,10 +1177,10 @@
         <v>42901</v>
       </c>
       <c r="B40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1194,10 +1191,10 @@
         <v>42902</v>
       </c>
       <c r="B41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1208,10 +1205,10 @@
         <v>42902</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -1222,10 +1219,10 @@
         <v>42903</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1236,10 +1233,10 @@
         <v>42903</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1253,7 +1250,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -1264,10 +1261,10 @@
         <v>42905</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -1278,10 +1275,10 @@
         <v>42906</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1292,10 +1289,10 @@
         <v>42906</v>
       </c>
       <c r="B48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -1306,13 +1303,27 @@
         <v>42907</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D49">
         <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="3">
+        <v>42908</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1325,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1344,100 +1355,100 @@
         <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
@@ -1496,7 +1507,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>22.5</v>
@@ -1507,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -1518,7 +1529,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -1529,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -1540,7 +1551,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -1551,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -1562,7 +1573,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -1573,7 +1584,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>Thema</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>Testinformationen in SoftwareVersionsDatabase schreiben</t>
+  </si>
+  <si>
+    <t>Fertigstellung der Arbeit</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Dokumentation Zielsetzung</t>
   </si>
 </sst>
 </file>
@@ -605,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1250,7 +1259,7 @@
         <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -1324,6 +1333,34 @@
       </c>
       <c r="D50">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="3">
+        <v>42909</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="3">
+        <v>42909</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1334,10 +1371,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1471,6 +1508,21 @@
         <v>11</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1482,7 +1534,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
   <si>
     <t>Thema</t>
   </si>
@@ -614,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1361,6 +1361,20 @@
       </c>
       <c r="D52">
         <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="3">
+        <v>42910</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
   <si>
     <t>Thema</t>
   </si>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>Dokumentation Zielsetzung</t>
+  </si>
+  <si>
+    <t>Dokumentation Beschreibung der Arbeit</t>
+  </si>
+  <si>
+    <t>26.06.2017-02.07.2017</t>
   </si>
 </sst>
 </file>
@@ -614,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D54" sqref="D46:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1375,6 +1381,20 @@
       </c>
       <c r="D53">
         <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="3">
+        <v>42911</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1545,10 +1565,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1652,6 +1672,17 @@
       <c r="B9" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="C9">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
   <si>
     <t>Thema</t>
   </si>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D54" sqref="D46:D54"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1395,6 +1395,34 @@
       </c>
       <c r="D54">
         <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="3">
+        <v>42912</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="3">
+        <v>42913</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1567,7 +1595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
   <si>
     <t>Thema</t>
   </si>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1423,6 +1423,48 @@
       </c>
       <c r="D56">
         <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="3">
+        <v>42914</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="3">
+        <v>42915</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="3">
+        <v>42916</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>41</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
   <si>
     <t>Thema</t>
   </si>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1467,6 +1467,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="3">
+        <v>42917</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1477,8 +1491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
   <si>
     <t>Thema</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>26.06.2017-02.07.2017</t>
+  </si>
+  <si>
+    <t>03.07.2017-08.07.2017</t>
   </si>
 </sst>
 </file>
@@ -620,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55:D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1478,6 +1481,20 @@
         <v>42</v>
       </c>
       <c r="D60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="3">
+        <v>42918</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61">
         <v>2</v>
       </c>
     </row>
@@ -1649,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1767,6 +1784,17 @@
       <c r="B10" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
   <si>
     <t>Thema</t>
   </si>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55:D61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1496,6 +1496,34 @@
       </c>
       <c r="D61">
         <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="3">
+        <v>42919</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>42</v>
+      </c>
+      <c r="D62">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="3">
+        <v>42919</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1668,7 +1696,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
   <si>
     <t>Thema</t>
   </si>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1524,6 +1524,20 @@
       </c>
       <c r="D63">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="3">
+        <v>42920</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
   <si>
     <t>Thema</t>
   </si>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1537,6 +1537,20 @@
         <v>42</v>
       </c>
       <c r="D64">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="3">
+        <v>42921</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65">
         <v>7</v>
       </c>
     </row>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
   <si>
     <t>Thema</t>
   </si>
@@ -623,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1552,6 +1552,48 @@
       </c>
       <c r="D65">
         <v>7</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="3">
+        <v>42922</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="3">
+        <v>42923</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="3">
+        <v>42924</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68">
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -206,7 +206,25 @@
     <t>26.06.2017-02.07.2017</t>
   </si>
   <si>
-    <t>03.07.2017-08.07.2017</t>
+    <t>03.07.2017-09.07.2017</t>
+  </si>
+  <si>
+    <t>10.07.2017-16.07.2017</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>fehlgeschlagen</t>
+  </si>
+  <si>
+    <t>in Bearbeitung</t>
+  </si>
+  <si>
+    <t>offen</t>
   </si>
 </sst>
 </file>
@@ -623,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D62" sqref="D62:D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1596,6 +1614,20 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="3">
+        <v>42925</v>
+      </c>
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1604,20 +1636,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="23.62890625" customWidth="1"/>
     <col min="2" max="2" width="57.1015625" customWidth="1"/>
-    <col min="3" max="3" width="62.734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.68359375" customWidth="1"/>
+    <col min="4" max="4" width="12.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1627,8 +1660,11 @@
       <c r="C1" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1636,138 +1672,186 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
         <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
         <v>39</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
         <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" t="s">
         <v>56</v>
       </c>
+      <c r="D28" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1893,6 +1977,17 @@
       <c r="B11" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="C11">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D62" sqref="D62:D69"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1628,6 +1628,62 @@
         <v>4</v>
       </c>
     </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="3">
+        <v>42928</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="3">
+        <v>42929</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="3">
+        <v>42930</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>42</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="3">
+        <v>42930</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1638,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1771,7 +1827,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -1779,7 +1835,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -644,7 +644,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1667,12 +1667,12 @@
         <v>42</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="3">
-        <v>42930</v>
+        <v>42931</v>
       </c>
       <c r="B73" s="8" t="s">
         <v>29</v>
@@ -1681,7 +1681,7 @@
         <v>30</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
   <si>
     <t>Thema</t>
   </si>
@@ -225,6 +225,9 @@
   </si>
   <si>
     <t>offen</t>
+  </si>
+  <si>
+    <t>17.07.2017-23.07.2017</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="D75" sqref="D70:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1684,6 +1687,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="3">
+        <v>42931</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="3">
+        <v>42932</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1694,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1904,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2044,6 +2075,17 @@
       <c r="B12" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
   <si>
     <t>Thema</t>
   </si>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D75" sqref="D70:D75"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1713,6 +1713,20 @@
       </c>
       <c r="D75">
         <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3">
+        <v>42934</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1937,7 +1951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
   <si>
     <t>Thema</t>
   </si>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1727,6 +1727,48 @@
       </c>
       <c r="D76">
         <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="3">
+        <v>42935</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="s">
+        <v>30</v>
+      </c>
+      <c r="D77">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="3">
+        <v>42936</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="3">
+        <v>42937</v>
+      </c>
+      <c r="B79" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
   <si>
     <t>Thema</t>
   </si>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1769,6 +1769,20 @@
       </c>
       <c r="D79">
         <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="3">
+        <v>42937</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
   <si>
     <t>Thema</t>
   </si>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1783,6 +1783,20 @@
       </c>
       <c r="D80">
         <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="3">
+        <v>42938</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>30</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="69">
   <si>
     <t>Thema</t>
   </si>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1797,6 +1797,20 @@
       </c>
       <c r="D81">
         <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="3">
+        <v>42939</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="70">
   <si>
     <t>Thema</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>17.07.2017-23.07.2017</t>
+  </si>
+  <si>
+    <t>24.07.2017-30.07.2017</t>
   </si>
 </sst>
 </file>
@@ -644,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="D83" sqref="D76:D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1811,6 +1814,20 @@
       </c>
       <c r="D82">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="3">
+        <v>42939</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="s">
+        <v>30</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2033,10 +2050,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C2:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2184,6 +2201,17 @@
       <c r="B13" s="9" t="s">
         <v>68</v>
       </c>
+      <c r="C13">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="70">
   <si>
     <t>Thema</t>
   </si>
@@ -647,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="D83" sqref="D76:D83"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1830,6 +1830,76 @@
         <v>7</v>
       </c>
     </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="3">
+        <v>42940</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="3">
+        <v>42941</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3">
+        <v>42942</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="3">
+        <v>42943</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="3">
+        <v>42944</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1840,8 +1910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1981,7 +2051,7 @@
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2010,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2052,8 +2122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C2:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="71">
   <si>
     <t>Thema</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>24.07.2017-30.07.2017</t>
+  </si>
+  <si>
+    <t>31.07.2017-06.08.2017</t>
   </si>
 </sst>
 </file>
@@ -647,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D92" sqref="D84:D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1897,6 +1900,62 @@
         <v>8</v>
       </c>
       <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="3">
+        <v>42945</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="3">
+        <v>42945</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C90" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="3">
+        <v>42946</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="3">
+        <v>42946</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92">
         <v>2</v>
       </c>
     </row>
@@ -2120,10 +2179,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2282,6 +2341,17 @@
       <c r="B14" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
   <si>
     <t>Thema</t>
   </si>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D92" sqref="D84:D92"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1957,6 +1957,20 @@
       </c>
       <c r="D92">
         <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="3">
+        <v>42947</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2195,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="71">
   <si>
     <t>Thema</t>
   </si>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1971,6 +1971,34 @@
       </c>
       <c r="D93">
         <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="3">
+        <v>42948</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="3">
+        <v>42950</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="71">
   <si>
     <t>Thema</t>
   </si>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1998,6 +1998,20 @@
         <v>8</v>
       </c>
       <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="3">
+        <v>42951</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96">
         <v>4</v>
       </c>
     </row>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="71">
   <si>
     <t>Thema</t>
   </si>
@@ -650,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2015,6 +2015,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="3">
+        <v>42952</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2026,7 +2040,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
   <si>
     <t>Thema</t>
   </si>
@@ -234,6 +234,9 @@
   </si>
   <si>
     <t>31.07.2017-06.08.2017</t>
+  </si>
+  <si>
+    <t>07.08.2017-13.08.2017</t>
   </si>
 </sst>
 </file>
@@ -650,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C104" sqref="C104"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D98" sqref="D93:D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2027,6 +2030,20 @@
       </c>
       <c r="D97">
         <v>3.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="3">
+        <v>42953</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -2249,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2422,6 +2439,17 @@
       <c r="B15" s="9" t="s">
         <v>70</v>
       </c>
+      <c r="C15">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="72">
   <si>
     <t>Thema</t>
   </si>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D98" sqref="D93:D98"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2043,7 +2043,63 @@
         <v>9</v>
       </c>
       <c r="D98">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="3">
+        <v>42953</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="3">
+        <v>42954</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C100" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="3">
+        <v>42955</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C101" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="3">
+        <v>42956</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C102" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2057,7 +2113,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2268,7 +2324,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="72">
   <si>
     <t>Thema</t>
   </si>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E102"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2100,6 +2100,34 @@
       </c>
       <c r="D102">
         <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="3">
+        <v>42957</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="3">
+        <v>42958</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="72">
   <si>
     <t>Thema</t>
   </si>
@@ -653,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2128,6 +2128,34 @@
       </c>
       <c r="D104">
         <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="3">
+        <v>42959</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C105" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="3">
+        <v>42959</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="73">
   <si>
     <t>Thema</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>07.08.2017-13.08.2017</t>
+  </si>
+  <si>
+    <t>14.08.2017-20.08.2017</t>
   </si>
 </sst>
 </file>
@@ -653,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="D100" sqref="D100:D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2156,6 +2159,20 @@
       </c>
       <c r="D106">
         <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="3">
+        <v>42960</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C107" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2378,10 +2395,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2562,6 +2579,17 @@
       <c r="B16" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="C16">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="73">
   <si>
     <t>Thema</t>
   </si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="D100" sqref="D100:D107"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2173,6 +2173,34 @@
       </c>
       <c r="D107">
         <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="3">
+        <v>42961</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C108" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="3">
+        <v>42962</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C109" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2397,7 +2425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="73">
   <si>
     <t>Thema</t>
   </si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2200,6 +2200,20 @@
         <v>8</v>
       </c>
       <c r="D109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="3">
+        <v>42963</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C110" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110">
         <v>4</v>
       </c>
     </row>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="73">
   <si>
     <t>Thema</t>
   </si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2214,6 +2214,20 @@
         <v>8</v>
       </c>
       <c r="D110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="3">
+        <v>42964</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C111" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111">
         <v>4</v>
       </c>
     </row>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="73">
   <si>
     <t>Thema</t>
   </si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C114" sqref="C114"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2229,6 +2229,34 @@
       </c>
       <c r="D111">
         <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="3">
+        <v>42965</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="3">
+        <v>42966</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C113" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="73">
   <si>
     <t>Thema</t>
   </si>
@@ -656,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C117" sqref="C117"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E109" sqref="E109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2259,6 +2259,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="3">
+        <v>42967</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2269,8 +2283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2423,7 +2437,7 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2431,7 +2445,7 @@
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2439,7 +2453,7 @@
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2447,7 +2461,7 @@
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="75">
   <si>
     <t>Thema</t>
   </si>
@@ -240,6 +240,12 @@
   </si>
   <si>
     <t>14.08.2017-20.08.2017</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Diverses</t>
   </si>
 </sst>
 </file>
@@ -656,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E109" sqref="E109"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2273,6 +2279,34 @@
         <v>3.5</v>
       </c>
     </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="3">
+        <v>42968</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C115" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="3">
+        <v>42968</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" t="s">
+        <v>74</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2283,8 +2317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Abbruch, da nicht so schnell realisierbar</t>
   </si>
   <si>
-    <t>Kapitel Grundlagen, Zielsetzung, Anfang Methodik beschrieben</t>
-  </si>
-  <si>
     <t xml:space="preserve">Woche </t>
   </si>
   <si>
@@ -83,9 +80,6 @@
     <t>Skripts ausgeführt</t>
   </si>
   <si>
-    <t>Kapitel Methodik, Beschreibung Arbeit beschrieben</t>
-  </si>
-  <si>
     <t>Erstellung Konzept</t>
   </si>
   <si>
@@ -95,12 +89,6 @@
     <t>Skript geschrieben, Firmware Database</t>
   </si>
   <si>
-    <t>Erstellung Skizzen</t>
-  </si>
-  <si>
-    <t>Dokumentation Grundlagen</t>
-  </si>
-  <si>
     <t xml:space="preserve">TestUpdateFirmware </t>
   </si>
   <si>
@@ -116,9 +104,6 @@
     <t>Abspeicherung der Testresultate</t>
   </si>
   <si>
-    <t>Dokumentation Grundlagen, Zielsetzung</t>
-  </si>
-  <si>
     <t>Bemerkungen</t>
   </si>
   <si>
@@ -195,12 +180,6 @@
   </si>
   <si>
     <t>Dokumentation</t>
-  </si>
-  <si>
-    <t>Dokumentation Zielsetzung</t>
-  </si>
-  <si>
-    <t>Dokumentation Beschreibung der Arbeit</t>
   </si>
   <si>
     <t>26.06.2017-02.07.2017</t>
@@ -662,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E116"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -690,7 +669,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -712,10 +691,10 @@
         <v>42857</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -726,10 +705,10 @@
         <v>42858</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -740,10 +719,10 @@
         <v>42859</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -754,10 +733,10 @@
         <v>42860</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -767,11 +746,11 @@
       <c r="A7" s="3">
         <v>42862</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -782,10 +761,10 @@
         <v>42862</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -796,7 +775,7 @@
         <v>42863</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -813,10 +792,10 @@
         <v>42864</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -827,10 +806,10 @@
         <v>42872</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -841,10 +820,10 @@
         <v>42872</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -855,10 +834,10 @@
         <v>42873</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -869,10 +848,10 @@
         <v>42873</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -883,7 +862,7 @@
         <v>42873</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>13</v>
@@ -896,11 +875,11 @@
       <c r="A16" s="3">
         <v>42876</v>
       </c>
-      <c r="B16" t="s">
-        <v>3</v>
+      <c r="B16" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -911,10 +890,10 @@
         <v>42877</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -925,10 +904,10 @@
         <v>42878</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -939,10 +918,10 @@
         <v>42879</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -952,11 +931,11 @@
       <c r="A20" s="3">
         <v>42880</v>
       </c>
-      <c r="B20" t="s">
-        <v>3</v>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D20">
         <v>3.5</v>
@@ -970,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D21">
         <v>2.5</v>
@@ -984,7 +963,7 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -998,7 +977,7 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1009,10 +988,10 @@
         <v>42884</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1023,10 +1002,10 @@
         <v>42885</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1037,10 +1016,10 @@
         <v>42886</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D26">
         <v>2.5</v>
@@ -1050,11 +1029,11 @@
       <c r="A27" s="3">
         <v>42890</v>
       </c>
-      <c r="B27" t="s">
-        <v>3</v>
+      <c r="B27" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1093,7 +1072,7 @@
         <v>42894</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
         <v>13</v>
@@ -1106,11 +1085,11 @@
       <c r="A31" s="3">
         <v>42894</v>
       </c>
-      <c r="B31" t="s">
-        <v>3</v>
+      <c r="B31" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D31">
         <v>1.5</v>
@@ -1120,11 +1099,11 @@
       <c r="A32" s="3">
         <v>42895</v>
       </c>
-      <c r="B32" t="s">
-        <v>3</v>
+      <c r="B32" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -1135,10 +1114,10 @@
         <v>42896</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1148,11 +1127,11 @@
       <c r="A34" s="3">
         <v>42897</v>
       </c>
-      <c r="B34" t="s">
-        <v>3</v>
+      <c r="B34" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -1162,11 +1141,11 @@
       <c r="A35" s="3">
         <v>42897</v>
       </c>
-      <c r="B35" t="s">
-        <v>3</v>
+      <c r="B35" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -1177,7 +1156,7 @@
         <v>42898</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
@@ -1190,11 +1169,11 @@
       <c r="A37" s="3">
         <v>42898</v>
       </c>
-      <c r="B37" t="s">
-        <v>3</v>
+      <c r="B37" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -1204,11 +1183,11 @@
       <c r="A38" s="3">
         <v>42900</v>
       </c>
-      <c r="B38" t="s">
-        <v>3</v>
+      <c r="B38" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -1219,7 +1198,7 @@
         <v>42901</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>13</v>
@@ -1234,10 +1213,10 @@
         <v>42901</v>
       </c>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1248,10 +1227,10 @@
         <v>42902</v>
       </c>
       <c r="B41" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1262,10 +1241,10 @@
         <v>42902</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -1276,10 +1255,10 @@
         <v>42903</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1290,10 +1269,10 @@
         <v>42903</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1303,11 +1282,11 @@
       <c r="A45" s="3">
         <v>42904</v>
       </c>
-      <c r="B45" t="s">
-        <v>3</v>
+      <c r="B45" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -1318,10 +1297,10 @@
         <v>42905</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -1332,10 +1311,10 @@
         <v>42906</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1346,10 +1325,10 @@
         <v>42906</v>
       </c>
       <c r="B48" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -1360,10 +1339,10 @@
         <v>42907</v>
       </c>
       <c r="B49" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1374,7 +1353,7 @@
         <v>42908</v>
       </c>
       <c r="B50" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
         <v>13</v>
@@ -1388,10 +1367,10 @@
         <v>42909</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -1401,11 +1380,11 @@
       <c r="A52" s="3">
         <v>42909</v>
       </c>
-      <c r="B52" t="s">
-        <v>3</v>
+      <c r="B52" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -1416,10 +1395,10 @@
         <v>42910</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1429,11 +1408,11 @@
       <c r="A54" s="3">
         <v>42911</v>
       </c>
-      <c r="B54" t="s">
-        <v>3</v>
+      <c r="B54" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D54">
         <v>6</v>
@@ -1444,10 +1423,10 @@
         <v>42912</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C55" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1458,10 +1437,10 @@
         <v>42913</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -1472,10 +1451,10 @@
         <v>42914</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1486,10 +1465,10 @@
         <v>42915</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1500,10 +1479,10 @@
         <v>42916</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1514,10 +1493,10 @@
         <v>42917</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1527,11 +1506,11 @@
       <c r="A61" s="3">
         <v>42918</v>
       </c>
-      <c r="B61" t="s">
-        <v>3</v>
+      <c r="B61" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -1542,10 +1521,10 @@
         <v>42919</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D62">
         <v>4.5</v>
@@ -1556,7 +1535,7 @@
         <v>42919</v>
       </c>
       <c r="B63" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
@@ -1570,10 +1549,10 @@
         <v>42920</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D64">
         <v>7</v>
@@ -1584,10 +1563,10 @@
         <v>42921</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D65">
         <v>7</v>
@@ -1598,10 +1577,10 @@
         <v>42922</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -1612,10 +1591,10 @@
         <v>42923</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C67" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -1626,10 +1605,10 @@
         <v>42924</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D68">
         <v>3.5</v>
@@ -1639,11 +1618,11 @@
       <c r="A69" s="3">
         <v>42925</v>
       </c>
-      <c r="B69" t="s">
-        <v>3</v>
+      <c r="B69" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C69" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -1654,10 +1633,10 @@
         <v>42928</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C70" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -1668,10 +1647,10 @@
         <v>42929</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -1682,10 +1661,10 @@
         <v>42930</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C72" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -1696,10 +1675,10 @@
         <v>42931</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -1709,11 +1688,11 @@
       <c r="A74" s="3">
         <v>42931</v>
       </c>
-      <c r="B74" t="s">
-        <v>3</v>
+      <c r="B74" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -1723,11 +1702,11 @@
       <c r="A75" s="3">
         <v>42932</v>
       </c>
-      <c r="B75" t="s">
-        <v>3</v>
+      <c r="B75" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>4</v>
@@ -1738,10 +1717,10 @@
         <v>42934</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -1752,10 +1731,10 @@
         <v>42935</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -1765,11 +1744,11 @@
       <c r="A78" s="3">
         <v>42936</v>
       </c>
-      <c r="B78" t="s">
-        <v>3</v>
+      <c r="B78" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C78" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -1780,7 +1759,7 @@
         <v>42937</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -1794,10 +1773,10 @@
         <v>42937</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -1808,10 +1787,10 @@
         <v>42938</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C81" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -1822,7 +1801,7 @@
         <v>42939</v>
       </c>
       <c r="B82" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
@@ -1836,10 +1815,10 @@
         <v>42939</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D83">
         <v>7</v>
@@ -1850,10 +1829,10 @@
         <v>42940</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C84" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1864,10 +1843,10 @@
         <v>42941</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -1878,10 +1857,10 @@
         <v>42942</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1892,10 +1871,10 @@
         <v>42943</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C87" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -1906,10 +1885,10 @@
         <v>42944</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -1920,10 +1899,10 @@
         <v>42945</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1934,10 +1913,10 @@
         <v>42945</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -1947,11 +1926,11 @@
       <c r="A91" s="3">
         <v>42946</v>
       </c>
-      <c r="B91" t="s">
-        <v>3</v>
+      <c r="B91" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="C91" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -1962,10 +1941,10 @@
         <v>42946</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -1976,10 +1955,10 @@
         <v>42947</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -1990,10 +1969,10 @@
         <v>42948</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94">
         <v>6</v>
@@ -2004,10 +1983,10 @@
         <v>42950</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -2018,10 +1997,10 @@
         <v>42951</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -2032,7 +2011,7 @@
         <v>42952</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C97" t="s">
         <v>9</v>
@@ -2046,7 +2025,7 @@
         <v>42953</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -2060,7 +2039,7 @@
         <v>42953</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C99" t="s">
         <v>10</v>
@@ -2074,7 +2053,7 @@
         <v>42954</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C100" t="s">
         <v>9</v>
@@ -2088,7 +2067,7 @@
         <v>42955</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C101" t="s">
         <v>9</v>
@@ -2102,7 +2081,7 @@
         <v>42956</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C102" t="s">
         <v>9</v>
@@ -2116,10 +2095,10 @@
         <v>42957</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -2130,10 +2109,10 @@
         <v>42958</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -2144,10 +2123,10 @@
         <v>42959</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -2158,7 +2137,7 @@
         <v>42959</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C106" t="s">
         <v>10</v>
@@ -2172,10 +2151,10 @@
         <v>42960</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107">
         <v>7</v>
@@ -2186,10 +2165,10 @@
         <v>42961</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -2200,10 +2179,10 @@
         <v>42962</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -2214,10 +2193,10 @@
         <v>42963</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -2228,10 +2207,10 @@
         <v>42964</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -2242,10 +2221,10 @@
         <v>42965</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -2256,7 +2235,7 @@
         <v>42966</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C113" t="s">
         <v>9</v>
@@ -2270,7 +2249,7 @@
         <v>42967</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C114" t="s">
         <v>9</v>
@@ -2284,7 +2263,7 @@
         <v>42968</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C115" t="s">
         <v>9</v>
@@ -2298,14 +2277,73 @@
         <v>42968</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D116">
         <v>4</v>
       </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="3">
+        <v>42969</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="3">
+        <v>42969</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C118" t="s">
+        <v>67</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="3">
+        <v>42969</v>
+      </c>
+      <c r="B119" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" t="s">
+        <v>51</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="3">
+        <v>42970</v>
+      </c>
+      <c r="B120" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2315,10 +2353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2337,186 +2375,178 @@
         <v>12</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="1" t="s">
-        <v>57</v>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2541,13 +2571,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2555,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2">
         <v>22.5</v>
@@ -2566,7 +2596,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -2577,7 +2607,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -2588,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -2599,7 +2629,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -2610,7 +2640,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -2621,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -2632,7 +2662,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <v>31.5</v>
@@ -2643,7 +2673,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -2654,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>36.5</v>
@@ -2665,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>23</v>
@@ -2676,7 +2706,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C13">
         <v>26.5</v>
@@ -2687,7 +2717,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -2698,7 +2728,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -2709,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -2720,7 +2750,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -644,7 +644,7 @@
   <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2339,7 +2339,7 @@
         <v>51</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -641,9 +641,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
@@ -2343,7 +2343,32 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A121" s="3"/>
+      <c r="A121" s="3">
+        <v>42971</v>
+      </c>
+      <c r="B121" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="3">
+        <v>42972</v>
+      </c>
+      <c r="B122" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" t="s">
+        <v>51</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+      <selection activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2370,6 +2370,20 @@
         <v>6</v>
       </c>
     </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="3">
+        <v>42973</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>51</v>
+      </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2380,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115:D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2382,6 +2382,20 @@
       </c>
       <c r="D123">
         <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="3">
+        <v>42974</v>
+      </c>
+      <c r="B124" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" t="s">
+        <v>51</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2598,8 +2612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2784,12 +2798,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>65</v>
+      </c>
+      <c r="C17">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24918" windowHeight="11406"/>
   </bookViews>
   <sheets>
     <sheet name="Stundenerfassung" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E126"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D115" sqref="D115:D124"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2396,6 +2396,34 @@
       </c>
       <c r="D124">
         <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="3">
+        <v>42975</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C125" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="3">
+        <v>42975</v>
+      </c>
+      <c r="B126" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" t="s">
+        <v>51</v>
+      </c>
+      <c r="D126">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +2640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -641,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+      <selection activeCell="E125" sqref="E125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2424,6 +2424,20 @@
       </c>
       <c r="D126">
         <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="3">
+        <v>42976</v>
+      </c>
+      <c r="B127" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" t="s">
+        <v>51</v>
+      </c>
+      <c r="D127">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Stundenerfassung/Stundenerfassung.xlsx
+++ b/Stundenerfassung/Stundenerfassung.xlsx
@@ -16,12 +16,15 @@
     <sheet name="Projekte" sheetId="2" r:id="rId2"/>
     <sheet name="Wochen" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Stundenerfassung!$A$1:$E$129</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="68">
   <si>
     <t>Thema</t>
   </si>
@@ -44,9 +47,6 @@
     <t>Projekte</t>
   </si>
   <si>
-    <t>Erstellung ETIC2</t>
-  </si>
-  <si>
     <t>Design View Model</t>
   </si>
   <si>
@@ -128,9 +128,6 @@
     <t>Abfrage Testinformationen</t>
   </si>
   <si>
-    <t>Schreibt Testinformationen in SoftwareVersionsDatabase</t>
-  </si>
-  <si>
     <t>Auslesung der Testinformationen</t>
   </si>
   <si>
@@ -225,6 +222,12 @@
   </si>
   <si>
     <t>Diverses</t>
+  </si>
+  <si>
+    <t>21.08.2017-31.08.2017</t>
+  </si>
+  <si>
+    <t>432.5h</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:E129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E125" sqref="E125"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:D125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -669,15 +672,15 @@
         <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3">
         <v>42857</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -691,10 +694,10 @@
         <v>42857</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -705,10 +708,10 @@
         <v>42858</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -719,10 +722,10 @@
         <v>42859</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -733,10 +736,10 @@
         <v>42860</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -747,7 +750,7 @@
         <v>42862</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -761,10 +764,10 @@
         <v>42862</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -775,16 +778,16 @@
         <v>42863</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -792,10 +795,10 @@
         <v>42864</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -806,10 +809,10 @@
         <v>42872</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -820,10 +823,10 @@
         <v>42872</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -834,10 +837,10 @@
         <v>42873</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -848,10 +851,10 @@
         <v>42873</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -862,10 +865,10 @@
         <v>42873</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -876,7 +879,7 @@
         <v>42876</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
         <v>3</v>
@@ -890,10 +893,10 @@
         <v>42877</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -904,10 +907,10 @@
         <v>42878</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D18">
         <v>8</v>
@@ -918,10 +921,10 @@
         <v>42879</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>8</v>
@@ -932,7 +935,7 @@
         <v>42880</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>3</v>
@@ -945,11 +948,11 @@
       <c r="A21" s="3">
         <v>42881</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
+      <c r="B21" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21">
         <v>2.5</v>
@@ -959,11 +962,11 @@
       <c r="A22" s="3">
         <v>42882</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
+      <c r="B22" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -973,11 +976,11 @@
       <c r="A23" s="3">
         <v>42883</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
+      <c r="B23" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -988,10 +991,10 @@
         <v>42884</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1002,10 +1005,10 @@
         <v>42885</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -1016,10 +1019,10 @@
         <v>42886</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D26">
         <v>2.5</v>
@@ -1030,7 +1033,7 @@
         <v>42890</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>3</v>
@@ -1043,11 +1046,11 @@
       <c r="A28" s="3">
         <v>42890</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
         <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1057,11 +1060,11 @@
       <c r="A29" s="3">
         <v>42891</v>
       </c>
-      <c r="B29" t="s">
-        <v>7</v>
+      <c r="B29" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -1072,10 +1075,10 @@
         <v>42894</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D30">
         <v>0.5</v>
@@ -1086,7 +1089,7 @@
         <v>42894</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C31" t="s">
         <v>3</v>
@@ -1100,7 +1103,7 @@
         <v>42895</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C32" t="s">
         <v>3</v>
@@ -1114,10 +1117,10 @@
         <v>42896</v>
       </c>
       <c r="B33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1128,7 +1131,7 @@
         <v>42897</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
@@ -1142,7 +1145,7 @@
         <v>42897</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
@@ -1156,10 +1159,10 @@
         <v>42898</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D36">
         <v>0.5</v>
@@ -1170,7 +1173,7 @@
         <v>42898</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
         <v>3</v>
@@ -1184,7 +1187,7 @@
         <v>42900</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
         <v>3</v>
@@ -1198,10 +1201,10 @@
         <v>42901</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>0.5</v>
@@ -1213,10 +1216,10 @@
         <v>42901</v>
       </c>
       <c r="B40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -1227,10 +1230,10 @@
         <v>42902</v>
       </c>
       <c r="B41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -1241,10 +1244,10 @@
         <v>42902</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42">
         <v>4</v>
@@ -1255,10 +1258,10 @@
         <v>42903</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43">
         <v>5</v>
@@ -1269,10 +1272,10 @@
         <v>42903</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1283,7 +1286,7 @@
         <v>42904</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
         <v>3</v>
@@ -1297,10 +1300,10 @@
         <v>42905</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -1311,10 +1314,10 @@
         <v>42906</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47">
         <v>2</v>
@@ -1325,10 +1328,10 @@
         <v>42906</v>
       </c>
       <c r="B48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -1339,10 +1342,10 @@
         <v>42907</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -1353,10 +1356,10 @@
         <v>42908</v>
       </c>
       <c r="B50" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50">
         <v>0.5</v>
@@ -1367,10 +1370,10 @@
         <v>42909</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D51">
         <v>6</v>
@@ -1381,7 +1384,7 @@
         <v>42909</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C52" t="s">
         <v>3</v>
@@ -1395,10 +1398,10 @@
         <v>42910</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D53">
         <v>4</v>
@@ -1409,7 +1412,7 @@
         <v>42911</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C54" t="s">
         <v>3</v>
@@ -1423,10 +1426,10 @@
         <v>42912</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D55">
         <v>4</v>
@@ -1437,10 +1440,10 @@
         <v>42913</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D56">
         <v>4</v>
@@ -1451,10 +1454,10 @@
         <v>42914</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D57">
         <v>4</v>
@@ -1465,10 +1468,10 @@
         <v>42915</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -1479,10 +1482,10 @@
         <v>42916</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D59">
         <v>2</v>
@@ -1493,10 +1496,10 @@
         <v>42917</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -1507,7 +1510,7 @@
         <v>42918</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C61" t="s">
         <v>3</v>
@@ -1521,10 +1524,10 @@
         <v>42919</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D62">
         <v>4.5</v>
@@ -1535,10 +1538,10 @@
         <v>42919</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D63">
         <v>0.5</v>
@@ -1549,10 +1552,10 @@
         <v>42920</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D64">
         <v>7</v>
@@ -1563,10 +1566,10 @@
         <v>42921</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D65">
         <v>7</v>
@@ -1577,10 +1580,10 @@
         <v>42922</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D66">
         <v>5</v>
@@ -1591,10 +1594,10 @@
         <v>42923</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D67">
         <v>5</v>
@@ -1605,10 +1608,10 @@
         <v>42924</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D68">
         <v>3.5</v>
@@ -1619,7 +1622,7 @@
         <v>42925</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C69" t="s">
         <v>3</v>
@@ -1633,10 +1636,10 @@
         <v>42928</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -1647,10 +1650,10 @@
         <v>42929</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -1661,10 +1664,10 @@
         <v>42930</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D72">
         <v>5</v>
@@ -1675,10 +1678,10 @@
         <v>42931</v>
       </c>
       <c r="B73" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
         <v>25</v>
-      </c>
-      <c r="C73" t="s">
-        <v>26</v>
       </c>
       <c r="D73">
         <v>4</v>
@@ -1689,7 +1692,7 @@
         <v>42931</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C74" t="s">
         <v>3</v>
@@ -1703,7 +1706,7 @@
         <v>42932</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
         <v>3</v>
@@ -1717,10 +1720,10 @@
         <v>42934</v>
       </c>
       <c r="B76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
         <v>25</v>
-      </c>
-      <c r="C76" t="s">
-        <v>26</v>
       </c>
       <c r="D76">
         <v>3</v>
@@ -1731,10 +1734,10 @@
         <v>42935</v>
       </c>
       <c r="B77" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" t="s">
         <v>25</v>
-      </c>
-      <c r="C77" t="s">
-        <v>26</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -1745,7 +1748,7 @@
         <v>42936</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C78" t="s">
         <v>3</v>
@@ -1759,10 +1762,10 @@
         <v>42937</v>
       </c>
       <c r="B79" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -1773,10 +1776,10 @@
         <v>42937</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
         <v>25</v>
-      </c>
-      <c r="C80" t="s">
-        <v>26</v>
       </c>
       <c r="D80">
         <v>6</v>
@@ -1787,10 +1790,10 @@
         <v>42938</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C81" t="s">
         <v>25</v>
-      </c>
-      <c r="C81" t="s">
-        <v>26</v>
       </c>
       <c r="D81">
         <v>5</v>
@@ -1801,10 +1804,10 @@
         <v>42939</v>
       </c>
       <c r="B82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D82">
         <v>0.5</v>
@@ -1815,10 +1818,10 @@
         <v>42939</v>
       </c>
       <c r="B83" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C83" t="s">
         <v>25</v>
-      </c>
-      <c r="C83" t="s">
-        <v>26</v>
       </c>
       <c r="D83">
         <v>7</v>
@@ -1829,10 +1832,10 @@
         <v>42940</v>
       </c>
       <c r="B84" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
         <v>25</v>
-      </c>
-      <c r="C84" t="s">
-        <v>26</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -1843,10 +1846,10 @@
         <v>42941</v>
       </c>
       <c r="B85" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C85" t="s">
         <v>25</v>
-      </c>
-      <c r="C85" t="s">
-        <v>26</v>
       </c>
       <c r="D85">
         <v>4</v>
@@ -1857,10 +1860,10 @@
         <v>42942</v>
       </c>
       <c r="B86" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86" t="s">
         <v>25</v>
-      </c>
-      <c r="C86" t="s">
-        <v>26</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -1871,10 +1874,10 @@
         <v>42943</v>
       </c>
       <c r="B87" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
         <v>25</v>
-      </c>
-      <c r="C87" t="s">
-        <v>26</v>
       </c>
       <c r="D87">
         <v>2</v>
@@ -1885,10 +1888,10 @@
         <v>42944</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -1899,10 +1902,10 @@
         <v>42945</v>
       </c>
       <c r="B89" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
         <v>25</v>
-      </c>
-      <c r="C89" t="s">
-        <v>26</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -1913,10 +1916,10 @@
         <v>42945</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D90">
         <v>2</v>
@@ -1927,7 +1930,7 @@
         <v>42946</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C91" t="s">
         <v>3</v>
@@ -1941,10 +1944,10 @@
         <v>42946</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D92">
         <v>2</v>
@@ -1955,10 +1958,10 @@
         <v>42947</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -1969,10 +1972,10 @@
         <v>42948</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D94">
         <v>6</v>
@@ -1983,10 +1986,10 @@
         <v>42950</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -1997,10 +2000,10 @@
         <v>42951</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -2011,10 +2014,10 @@
         <v>42952</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D97">
         <v>3.5</v>
@@ -2025,10 +2028,10 @@
         <v>42953</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D98">
         <v>4</v>
@@ -2039,10 +2042,10 @@
         <v>42953</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2053,10 +2056,10 @@
         <v>42954</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D100">
         <v>3</v>
@@ -2067,10 +2070,10 @@
         <v>42955</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D101">
         <v>4</v>
@@ -2081,10 +2084,10 @@
         <v>42956</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -2095,10 +2098,10 @@
         <v>42957</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D103">
         <v>5</v>
@@ -2109,10 +2112,10 @@
         <v>42958</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D104">
         <v>5</v>
@@ -2123,10 +2126,10 @@
         <v>42959</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D105">
         <v>5</v>
@@ -2137,10 +2140,10 @@
         <v>42959</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -2151,10 +2154,10 @@
         <v>42960</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D107">
         <v>7</v>
@@ -2165,10 +2168,10 @@
         <v>42961</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D108">
         <v>5</v>
@@ -2179,10 +2182,10 @@
         <v>42962</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -2193,10 +2196,10 @@
         <v>42963</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -2207,10 +2210,10 @@
         <v>42964</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -2221,10 +2224,10 @@
         <v>42965</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -2235,10 +2238,10 @@
         <v>42966</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D113">
         <v>7</v>
@@ -2249,10 +2252,10 @@
         <v>42967</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D114">
         <v>3.5</v>
@@ -2263,10 +2266,10 @@
         <v>42968</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -2277,10 +2280,10 @@
         <v>42968</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C116" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D116">
         <v>4</v>
@@ -2291,10 +2294,10 @@
         <v>42969</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -2305,10 +2308,10 @@
         <v>42969</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C118" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -2318,11 +2321,11 @@
       <c r="A119" s="3">
         <v>42969</v>
       </c>
-      <c r="B119" t="s">
-        <v>3</v>
+      <c r="B119" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C119" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -2332,25 +2335,25 @@
       <c r="A120" s="3">
         <v>42970</v>
       </c>
-      <c r="B120" t="s">
-        <v>3</v>
+      <c r="B120" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C120" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D120">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="3">
         <v>42971</v>
       </c>
-      <c r="B121" t="s">
-        <v>3</v>
+      <c r="B121" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D121">
         <v>7</v>
@@ -2360,25 +2363,25 @@
       <c r="A122" s="3">
         <v>42972</v>
       </c>
-      <c r="B122" t="s">
-        <v>3</v>
+      <c r="B122" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C122" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D122">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="3">
         <v>42973</v>
       </c>
-      <c r="B123" t="s">
-        <v>3</v>
+      <c r="B123" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C123" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D123">
         <v>7</v>
@@ -2388,14 +2391,14 @@
       <c r="A124" s="3">
         <v>42974</v>
       </c>
-      <c r="B124" t="s">
-        <v>3</v>
+      <c r="B124" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D124">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2403,10 +2406,10 @@
         <v>42975</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -2416,11 +2419,11 @@
       <c r="A126" s="3">
         <v>42975</v>
       </c>
-      <c r="B126" t="s">
-        <v>3</v>
+      <c r="B126" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C126" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D126">
         <v>8</v>
@@ -2430,17 +2433,46 @@
       <c r="A127" s="3">
         <v>42976</v>
       </c>
-      <c r="B127" t="s">
-        <v>3</v>
+      <c r="B127" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="C127" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D127">
-        <v>4</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="3">
+        <v>42977</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C128" t="s">
+        <v>49</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="3">
+        <v>42978</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C129" t="s">
+        <v>49</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E129"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2450,7 +2482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -2467,165 +2499,165 @@
         <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -2633,15 +2665,15 @@
         <v>3</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2652,10 +2684,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2666,13 +2698,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
@@ -2680,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2">
         <v>22.5</v>
@@ -2691,7 +2723,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3">
         <v>8</v>
@@ -2702,7 +2734,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>16</v>
@@ -2713,7 +2745,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>28</v>
@@ -2724,7 +2756,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>20</v>
@@ -2735,7 +2767,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>12</v>
@@ -2746,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>31</v>
@@ -2757,7 +2789,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>31.5</v>
@@ -2768,7 +2800,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>20</v>
@@ -2779,7 +2811,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C11">
         <v>36.5</v>
@@ -2790,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C12">
         <v>23</v>
@@ -2801,7 +2833,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>26.5</v>
@@ -2812,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C14">
         <v>20</v>
@@ -2823,7 +2855,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15">
         <v>27.5</v>
@@ -2834,7 +2866,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16">
         <v>35</v>
@@ -2845,10 +2877,26 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17">
         <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
